--- a/stimuli_ru/multipleye_participant_instructions_ru.xlsx
+++ b/stimuli_ru/multipleye_participant_instructions_ru.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_ru/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B6492-FC67-AC45-A923-BDF4BB81FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -125,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -484,22 +474,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.5" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -527,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -537,7 +527,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -549,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -563,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -575,7 +565,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -589,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -603,7 +593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -617,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>

--- a/stimuli_ru/multipleye_participant_instructions_ru.xlsx
+++ b/stimuli_ru/multipleye_participant_instructions_ru.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_ru/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B6492-FC67-AC45-A923-BDF4BB81FD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,22 +99,22 @@
     <t>Сейчас мы начнем с двух тренировочных текстов, чтобы вы смогли увидеть, как устроен эксперимент.</t>
   </si>
   <si>
-    <t>В этом эксперименте вам предстоит прочитать несколько текстов разной длины. Каждый текст разделен на несколько страниц (экранов). Пожалуйста, читайте тексты так, как вы бы прочитали любой другой текст. После того как вы прочитаете одну страницу, посмотрите в правый нижний угол экрана и нажмите на пробел, чтобы появилась следующая страница. После каждого текста вам нужно будет ответить на несколько вопросов по тексту. Вы можете использовать клавиатуру, чтобы выбрать ответ. Вы не сможете вернуться к странице или вопросу, которые уже прочитали.
-Перед каждой новой страницей в левом верхнем углу экрана будет отображаться точка фиксации. Чтобы появился текст, вам нужно внимательно смотреть на эту точку.
-В промежутке между двумя текстами может потребоваться повторная калибровка.</t>
-  </si>
-  <si>
-    <t>Тренировка окончена. Если вы готовы, то сейчас начнется эксперимент. Пожалуйста, старайтесь как можно меньше двигаться во время чтения текстов, чтобы избежать повторной калибровки айтрекера.</t>
-  </si>
-  <si>
     <t>Чтобы начать эксперимент, вам нужно будет прочитать и подписать форму, в которой объясняется, как мы собираемся использовать данные. 
 Экспериментатор попросит вас сделать это сейчас.</t>
+  </si>
+  <si>
+    <t>Тренировка окончена. Если вы готовы, то сейчас начнется эксперимент. Пожалуйста, старайтесь как можно меньше двигаться во время чтения текстов, чтобы избежать повторной калибровки айтрекера.
+Пожалуйста, нажмите пробел, когда вы будете готовы.</t>
+  </si>
+  <si>
+    <t>В этом эксперименте вам предстоит прочитать несколько текстов разной длины. Каждый текст разделен на несколько страниц (экранов). Пожалуйста, читайте тексты так, как вы бы читали любой другой текст. После того как вы прочитаете одну страницу, посмотрите в правый нижний угол экрана и нажмите на пробел, чтобы появилась следующая страница. После каждого текста вам нужно будет ответить на несколько вопросов по тексту. Вы можете использовать клавиатуру, чтобы выбрать ответ. Вы не сможете вернуться к странице или вопросу, которые уже прочитали.
+Перед каждой новой страницей в левом верхнем углу экрана будет отображаться точка фиксации. Чтобы появился текст, вам нужно внимательно смотреть на эту точку. В промежутке между двумя текстами может потребоваться повторная калибровка. Пожалуйста, нажмите пробел, когда вы будете готовы.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -153,17 +152,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,22 +476,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.5" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -517,43 +519,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -565,7 +567,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -573,13 +575,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -593,7 +595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -607,7 +609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -615,7 +617,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
